--- a/data/trans_dic/P59A-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P59A-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14,8; 29,21</t>
+          <t>15,04; 28,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17,09; 31,49</t>
+          <t>16,04; 30,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,16; 19,78</t>
+          <t>9,27; 20,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,23; 29,63</t>
+          <t>16,44; 29,84</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,89; 24,84</t>
+          <t>10,97; 24,79</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,32; 34,31</t>
+          <t>15,54; 32,82</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>11,64; 24,97</t>
+          <t>11,62; 24,85</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,34; 26,16</t>
+          <t>15,93; 26,03</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14,31; 24,36</t>
+          <t>15,06; 25,17</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>18,16; 30,07</t>
+          <t>18,25; 29,63</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>11,61; 19,89</t>
+          <t>11,57; 19,86</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>17,8; 25,45</t>
+          <t>18,11; 25,74</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,11; 23,06</t>
+          <t>10,17; 23,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,64; 24,08</t>
+          <t>9,78; 24,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>26,67; 44,18</t>
+          <t>25,98; 43,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,12; 20,72</t>
+          <t>9,19; 21,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,88; 30,9</t>
+          <t>17,37; 30,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,33; 31,37</t>
+          <t>15,02; 31,82</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,26; 26,03</t>
+          <t>12,34; 25,21</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,19; 28,01</t>
+          <t>16,07; 27,51</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>15,76; 25,15</t>
+          <t>15,85; 25,16</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>14,06; 24,83</t>
+          <t>13,31; 24,52</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>20,8; 31,05</t>
+          <t>20,47; 31,15</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>13,68; 22,05</t>
+          <t>13,79; 21,94</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,58; 28,57</t>
+          <t>15,16; 28,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,09; 30,22</t>
+          <t>16,79; 29,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,32; 26,19</t>
+          <t>13,38; 27,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,59; 31,99</t>
+          <t>17,11; 32,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,09; 18,24</t>
+          <t>2,08; 19,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,08; 28,91</t>
+          <t>12,42; 27,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,99; 28,83</t>
+          <t>9,09; 29,63</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,27; 19,41</t>
+          <t>6,35; 19,62</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12,69; 24,35</t>
+          <t>13,12; 25,16</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>17,1; 27,06</t>
+          <t>16,78; 26,8</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>13,63; 24,27</t>
+          <t>13,71; 24,79</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>14,9; 26,33</t>
+          <t>14,81; 26,16</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,68; 19,69</t>
+          <t>12,6; 19,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,79; 22,69</t>
+          <t>14,88; 23,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>18,64; 27,38</t>
+          <t>19,33; 27,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,26; 24,17</t>
+          <t>15,23; 24,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,48; 15,98</t>
+          <t>8,14; 15,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,17; 27,08</t>
+          <t>17,82; 26,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,98; 24,11</t>
+          <t>16,31; 24,6</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,07; 22,06</t>
+          <t>13,97; 21,46</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>11,74; 16,85</t>
+          <t>11,72; 17,16</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>16,96; 23,09</t>
+          <t>17,02; 23,3</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>18,94; 24,22</t>
+          <t>18,72; 24,4</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>15,72; 21,47</t>
+          <t>15,72; 21,66</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,81; 21,55</t>
+          <t>9,75; 21,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10,16; 19,92</t>
+          <t>10,95; 20,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>13,61; 23,12</t>
+          <t>13,18; 23,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>10,05; 20,8</t>
+          <t>10,35; 21,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,27; 19,79</t>
+          <t>8,89; 18,42</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,64; 18,83</t>
+          <t>9,81; 18,86</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,86; 20,02</t>
+          <t>11,72; 19,82</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,41; 13,0</t>
+          <t>5,29; 13,29</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>10,24; 17,99</t>
+          <t>9,98; 18,02</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>11,28; 17,39</t>
+          <t>11,18; 17,87</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>13,51; 19,93</t>
+          <t>13,53; 19,78</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>7,82; 14,72</t>
+          <t>7,85; 14,59</t>
         </is>
       </c>
     </row>
@@ -1424,7 +1425,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,5</t>
+          <t>0,0; 1,48</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1434,52 +1435,52 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,05; 5,23</t>
+          <t>1,15; 5,1</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,14; 7,64</t>
+          <t>0,1; 8,01</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,68; 4,68</t>
+          <t>1,6; 4,76</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,48; 6,24</t>
+          <t>2,47; 6,24</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,57; 7,76</t>
+          <t>3,73; 7,75</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,54; 8,88</t>
+          <t>3,59; 9,41</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,2; 3,18</t>
+          <t>1,21; 3,39</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,63; 4,16</t>
+          <t>1,61; 4,0</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>3,14; 6,23</t>
+          <t>3,17; 6,11</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>2,57; 6,99</t>
+          <t>2,81; 7,51</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>11,77; 15,64</t>
+          <t>11,66; 15,56</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>13,54; 17,73</t>
+          <t>13,55; 17,6</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>15,66; 19,62</t>
+          <t>15,63; 19,59</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>13,99; 18,61</t>
+          <t>13,83; 18,66</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>8,66; 12,1</t>
+          <t>8,51; 11,9</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>12,3; 16,23</t>
+          <t>12,52; 16,27</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>12,43; 15,83</t>
+          <t>12,48; 16,06</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>11,06; 14,92</t>
+          <t>10,93; 14,72</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>10,62; 13,18</t>
+          <t>10,56; 13,19</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>13,33; 16,19</t>
+          <t>13,44; 16,29</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>14,52; 17,23</t>
+          <t>14,56; 17,38</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>12,99; 16,03</t>
+          <t>13,1; 16,01</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que vive actualmente en pareja</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>31296</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>35580</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>26146</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>45408</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>20755</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>27759</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>26956</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>43914</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>52051</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>63340</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>53102</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>89322</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>21861; 41920</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>24492; 47286</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>17338; 37389</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>33083; 60055</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>13610; 30759</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>17951; 37916</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>17981; 38445</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>34062; 55680</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>40561; 67811</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>48952; 79468</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>39514; 67851</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>75170; 106855</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>19476</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>21269</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>44670</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>27553</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>38551</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>26259</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>27337</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>38061</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>58026</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>47527</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>72007</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>65614</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>12480; 28702</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>13123; 33059</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>33435; 56572</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>17903; 41132</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>28554; 49754</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>17668; 37441</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>18889; 38575</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>29003; 49668</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>45520; 72246</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>33535; 61772</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>57662; 87759</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>51754; 82335</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>33950</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>44301</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>30229</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>42630</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>3009</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>18519</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>11959</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>8949</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>36959</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>62819</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>42188</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>51579</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>24126; 46069</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>32586; 57759</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>20816; 42187</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>31156; 59236</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>940; 8876</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>12229; 27455</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>6202; 20228</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4878; 15070</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>26817; 51449</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>49112; 78431</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>30696; 55504</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>38351; 67748</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>66178</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>77086</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>94933</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>96118</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>36459</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>71833</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>82519</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>66993</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>102637</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>148920</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>177451</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>163111</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>51655; 81656</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>62070; 96291</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>79782; 113112</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>76127; 120369</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>25161; 48749</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>57508; 87129</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>67857; 102341</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>53088; 81538</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>84290; 123384</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>125952; 172395</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>155141; 202238</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>138294; 190511</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>23071</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>33346</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>52238</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>37352</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>26468</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>38604</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>49234</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>40546</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>49540</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>71949</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>101472</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>77898</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>15747; 34115</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>24458; 45699</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>38835; 67883</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>26663; 54150</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>17513; 36272</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>27719; 53281</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>37106; 62757</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>22256; 55908</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>35787; 64612</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>56567; 90379</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>82709; 120880</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>53210; 98945</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>7047</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>5070</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>16135</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>19766</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>26192</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>24075</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>16986</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>19766</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>33240</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>29145</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4257</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1926</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>3191; 14165</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>239; 18918</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>8656; 25778</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>11996; 30300</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>17870; 37120</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>15315; 40168</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>10036; 28099</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>11966; 29684</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>23970; 46229</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>18611; 49793</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>454</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>496</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>174821</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>211582</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>255263</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>254131</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>141378</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>202740</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>224197</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>222539</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>316199</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>414321</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>479461</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>476669</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>149905; 200056</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>186741; 242547</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>227607; 285309</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>217373; 293236</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>117584; 164306</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>178142; 231558</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>198142; 254976</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>185648; 250084</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>281515; 351900</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>376419; 456231</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>443195; 529112</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>428284; 523453</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P59A-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P59A-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
